--- a/docs/models.xlsx
+++ b/docs/models.xlsx
@@ -5,13 +5,13 @@
   <sheets>
     <sheet name="ExternalToken" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="UserUserFollow" sheetId="3" r:id="rId3"/>
-    <sheet name="Admin" sheetId="4" r:id="rId4"/>
-    <sheet name="Client" sheetId="5" r:id="rId5"/>
-    <sheet name="Notification" sheetId="6" r:id="rId6"/>
-    <sheet name="Notification_User" sheetId="7" r:id="rId7"/>
-    <sheet name="Event" sheetId="8" r:id="rId8"/>
-    <sheet name="Event_User" sheetId="9" r:id="rId9"/>
+    <sheet name="Admin" sheetId="3" r:id="rId3"/>
+    <sheet name="Client" sheetId="4" r:id="rId4"/>
+    <sheet name="Notification" sheetId="5" r:id="rId5"/>
+    <sheet name="Notification_User" sheetId="6" r:id="rId6"/>
+    <sheet name="Event" sheetId="7" r:id="rId7"/>
+    <sheet name="Event_User" sheetId="8" r:id="rId8"/>
+    <sheet name="OpenAIResponseLog" sheetId="9" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
@@ -785,7 +785,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,31 +803,19 @@
       <c r="D1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="E1" t="str">
-        <v>UserId</v>
-      </c>
-      <c r="F1" t="str">
-        <v>followerId</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>sqlType</v>
       </c>
       <c r="B2" t="str">
-        <v>INTEGER</v>
+        <v>UUID</v>
       </c>
       <c r="C2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
       </c>
       <c r="D2" t="str">
         <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="E2" t="str">
-        <v>UUID</v>
-      </c>
-      <c r="F2" t="str">
-        <v>UUID</v>
       </c>
     </row>
     <row r="3">
@@ -843,36 +831,24 @@
       <c r="D3" t="str">
         <v/>
       </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>refernces</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>User</v>
       </c>
       <c r="C4" t="str">
         <v/>
       </c>
       <c r="D4" t="str">
         <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>User</v>
-      </c>
-      <c r="F4" t="str">
-        <v>User</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -949,76 +925,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>createdAt</v>
-      </c>
-      <c r="D1" t="str">
-        <v>updatedAt</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>sqlType</v>
-      </c>
-      <c r="B2" t="str">
-        <v>UUID</v>
-      </c>
-      <c r="C2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-      <c r="D2" t="str">
-        <v>TIMESTAMP WITH TIME ZONE</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>isRequired</v>
-      </c>
-      <c r="B3" t="str">
-        <v/>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>refernces</v>
-      </c>
-      <c r="B4" t="str">
-        <v>User</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1147,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1253,7 +1159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1395,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1487,4 +1393,230 @@
     <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>user</v>
+      </c>
+      <c r="D1" t="str">
+        <v>object</v>
+      </c>
+      <c r="E1" t="str">
+        <v>created</v>
+      </c>
+      <c r="F1" t="str">
+        <v>model</v>
+      </c>
+      <c r="G1" t="str">
+        <v>prompt_tokens</v>
+      </c>
+      <c r="H1" t="str">
+        <v>completion_tokens</v>
+      </c>
+      <c r="I1" t="str">
+        <v>total_tokens</v>
+      </c>
+      <c r="J1" t="str">
+        <v>role</v>
+      </c>
+      <c r="K1" t="str">
+        <v>systemPrompt</v>
+      </c>
+      <c r="L1" t="str">
+        <v>userPrompt</v>
+      </c>
+      <c r="M1" t="str">
+        <v>content</v>
+      </c>
+      <c r="N1" t="str">
+        <v>index</v>
+      </c>
+      <c r="O1" t="str">
+        <v>finish_reason</v>
+      </c>
+      <c r="P1" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>updatedAt</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>sqlType</v>
+      </c>
+      <c r="B2" t="str">
+        <v>VARCHAR(38)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="E2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="F2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="G2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="H2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="I2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="J2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="K2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="L2" t="str">
+        <v>VARCHAR(40)</v>
+      </c>
+      <c r="M2" t="str">
+        <v>TEXT</v>
+      </c>
+      <c r="N2" t="str">
+        <v>INTEGER</v>
+      </c>
+      <c r="O2" t="str">
+        <v>VARCHAR(255)</v>
+      </c>
+      <c r="P2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>TIMESTAMP WITH TIME ZONE</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>isRequired</v>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>refernces</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+  </ignoredErrors>
+</worksheet>
 </file>